--- a/Data/aearep-737/candidatepackages.xlsx
+++ b/Data/aearep-737/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -37,33 +37,36 @@
     <t>split</t>
   </si>
   <si>
+    <t>vam</t>
+  </si>
+  <si>
     <t>levels</t>
   </si>
   <si>
     <t>white</t>
   </si>
   <si>
-    <t>vam</t>
-  </si>
-  <si>
     <t>median</t>
   </si>
   <si>
+    <t>kernel</t>
+  </si>
+  <si>
     <t>combine</t>
   </si>
   <si>
-    <t>kernel</t>
-  </si>
-  <si>
     <t>mc</t>
   </si>
   <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>vlist</t>
+  </si>
+  <si>
     <t>dash</t>
   </si>
   <si>
-    <t>vlist</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -103,18 +106,12 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-737/118502/penalty/scripts_to_process/figures</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-737/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
     <t>main.do</t>
   </si>
   <si>
-    <t>config.do</t>
-  </si>
-  <si>
     <t>main_disc.do</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
   </si>
   <si>
     <t>rk_coverage.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -309,7 +303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -317,13 +311,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -331,7 +325,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -343,7 +337,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -355,7 +349,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -367,7 +361,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -379,10 +373,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>565</v>
+        <v>499</v>
       </c>
       <c r="C6">
-        <v>0.18733422458171844</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D6"/>
     </row>
@@ -391,10 +385,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="C7">
-        <v>0.20092837512493134</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D7"/>
     </row>
@@ -403,10 +397,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>694</v>
+        <v>658</v>
       </c>
       <c r="C8">
-        <v>0.23010610044002533</v>
+        <v>0.21752065420150757</v>
       </c>
       <c r="D8"/>
     </row>
@@ -415,10 +409,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>745</v>
+        <v>706</v>
       </c>
       <c r="C9">
-        <v>0.24701590836048126</v>
+        <v>0.23338842391967773</v>
       </c>
       <c r="D9"/>
     </row>
@@ -427,10 +421,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>927</v>
+        <v>712</v>
       </c>
       <c r="C10">
-        <v>0.30736073851585388</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D10"/>
     </row>
@@ -439,10 +433,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1133</v>
+        <v>955</v>
       </c>
       <c r="C11">
-        <v>0.37566313147544861</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D11"/>
     </row>
@@ -451,10 +445,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1423</v>
+        <v>1368</v>
       </c>
       <c r="C12">
-        <v>0.47181698679924011</v>
+        <v>0.45223140716552734</v>
       </c>
       <c r="D12"/>
     </row>
@@ -463,10 +457,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1476</v>
+        <v>1414</v>
       </c>
       <c r="C13">
-        <v>0.48938992619514465</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D13"/>
     </row>
@@ -475,10 +469,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1755</v>
+        <v>1767</v>
       </c>
       <c r="C14">
-        <v>0.58189654350280762</v>
+        <v>0.58413225412368774</v>
       </c>
       <c r="D14"/>
     </row>
@@ -487,10 +481,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2424</v>
+        <v>2057</v>
       </c>
       <c r="C15">
-        <v>0.80371350049972534</v>
+        <v>0.68000000715255737</v>
       </c>
       <c r="D15"/>
     </row>
@@ -499,12 +493,24 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2679</v>
+        <v>2283</v>
       </c>
       <c r="C16">
-        <v>0.88826256990432739</v>
+        <v>0.75471073389053345</v>
       </c>
       <c r="D16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2436</v>
+      </c>
+      <c r="C17">
+        <v>0.80528926849365234</v>
+      </c>
+      <c r="D17"/>
     </row>
   </sheetData>
 </worksheet>
@@ -512,12 +518,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B52"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>30</v>
@@ -525,7 +531,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
@@ -533,7 +539,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
@@ -541,7 +547,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>33</v>
@@ -549,7 +555,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -557,7 +563,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
@@ -565,7 +571,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
@@ -573,7 +579,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
@@ -581,7 +587,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
@@ -589,7 +595,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -597,7 +603,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
@@ -605,7 +611,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
@@ -613,7 +619,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -621,7 +627,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -629,7 +635,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>44</v>
@@ -637,7 +643,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
@@ -645,7 +651,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>46</v>
@@ -653,7 +659,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
@@ -661,7 +667,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>48</v>
@@ -669,7 +675,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -677,7 +683,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -685,7 +691,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
@@ -693,7 +699,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -701,7 +707,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
@@ -709,7 +715,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
@@ -717,7 +723,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>55</v>
@@ -725,7 +731,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
@@ -733,7 +739,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
@@ -741,7 +747,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
@@ -749,7 +755,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
         <v>59</v>
@@ -757,7 +763,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
         <v>60</v>
@@ -765,7 +771,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
@@ -773,7 +779,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
         <v>62</v>
@@ -781,7 +787,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
         <v>63</v>
@@ -789,7 +795,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
         <v>64</v>
@@ -797,7 +803,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
         <v>65</v>
@@ -805,7 +811,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
         <v>66</v>
@@ -813,7 +819,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
@@ -821,7 +827,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
         <v>68</v>
@@ -829,7 +835,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
         <v>69</v>
@@ -837,7 +843,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
         <v>70</v>
@@ -845,7 +851,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
         <v>71</v>
@@ -853,7 +859,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
         <v>72</v>
@@ -861,7 +867,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
         <v>73</v>
@@ -869,7 +875,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
         <v>74</v>
@@ -877,7 +883,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
         <v>75</v>
@@ -885,7 +891,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
         <v>76</v>
@@ -893,7 +899,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
         <v>77</v>
@@ -901,7 +907,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
         <v>78</v>
@@ -909,7 +915,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
         <v>79</v>
@@ -917,7 +923,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
         <v>80</v>
@@ -925,26 +931,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
